--- a/assets/templates/Template.xlsx
+++ b/assets/templates/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5FDBF8-C608-4DB6-A00A-FE9EB70EDD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C14B025-06CB-49CD-9FE9-A22507B1E623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS" sheetId="1" r:id="rId1"/>
@@ -227,9 +227,6 @@
     <t>itemTypeName</t>
   </si>
   <si>
-    <t>NG-001</t>
-  </si>
-  <si>
     <t>Available</t>
   </si>
   <si>
@@ -426,6 +423,9 @@
   </si>
   <si>
     <t>product 1 description</t>
+  </si>
+  <si>
+    <t>sku_unique</t>
   </si>
 </sst>
 </file>
@@ -974,10 +974,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>48</v>
@@ -1034,13 +1034,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
         <v>124</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>125</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D2" s="5">
         <v>15</v>
@@ -1140,7 +1140,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>29</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -4206,27 +4206,27 @@
         <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5">
         <v>11</v>
@@ -4238,11 +4238,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -6089,36 +6089,36 @@
         <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -6132,15 +6132,15 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
         <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -6156,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -7382,7 +7382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7398,42 +7398,42 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -8892,7 +8892,7 @@
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -8907,10 +8907,10 @@
         <v>19</v>
       </c>
       <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
         <v>92</v>
-      </c>
-      <c r="J1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -8939,10 +8939,10 @@
         <v>40</v>
       </c>
       <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
         <v>71</v>
-      </c>
-      <c r="J2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -8956,7 +8956,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
@@ -8971,10 +8971,10 @@
         <v>41</v>
       </c>
       <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
         <v>95</v>
-      </c>
-      <c r="J3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -8985,7 +8985,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
@@ -8997,10 +8997,10 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
         <v>98</v>
-      </c>
-      <c r="J4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -9008,97 +9008,97 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
       <c r="F5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
         <v>101</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>102</v>
-      </c>
-      <c r="J5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
         <v>104</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>105</v>
-      </c>
-      <c r="J6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
         <v>107</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>108</v>
-      </c>
-      <c r="J7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" t="s">
         <v>110</v>
-      </c>
-      <c r="J8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
         <v>112</v>
-      </c>
-      <c r="J9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
